--- a/excel/exported/roles.xlsx
+++ b/excel/exported/roles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>administrator</t>
   </si>
@@ -24,7 +24,7 @@
     <t>manage administration privileges</t>
   </si>
   <si>
-    <t>2020-10-06 19:54:05.0000000</t>
+    <t>2021-03-27 11:28:31.0000000</t>
   </si>
   <si>
     <t>operator</t>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>operator app</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:28:32.0000000</t>
   </si>
   <si>
     <t>commander</t>
@@ -123,10 +126,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -134,19 +137,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excel/exported/roles.xlsx
+++ b/excel/exported/roles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>administrator</t>
   </si>
@@ -24,7 +24,7 @@
     <t>manage administration privileges</t>
   </si>
   <si>
-    <t>2021-03-27 11:28:31.0000000</t>
+    <t>2020-10-06 19:54:05.0000000</t>
   </si>
   <si>
     <t>operator</t>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>operator app</t>
-  </si>
-  <si>
-    <t>2021-03-27 11:28:32.0000000</t>
   </si>
   <si>
     <t>commander</t>
@@ -126,10 +123,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -137,19 +134,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
